--- a/artfynd/A 6034-2026 artfynd.xlsx
+++ b/artfynd/A 6034-2026 artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY11"/>
+  <dimension ref="A1:AY42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1809,6 +1809,3318 @@
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>131202690</v>
+      </c>
+      <c r="B12" t="n">
+        <v>8451</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>106545</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Mindre märgborre</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Tomicus minor</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>(Hartig, 1834)</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr"/>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Ore älv, södra sidan, öster Flygfältsvägen, Dlr</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>485448</v>
+      </c>
+      <c r="R12" t="n">
+        <v>6783153</v>
+      </c>
+      <c r="S12" t="n">
+        <v>10</v>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>Orsa</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>Orsa</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="AD12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF12" t="inlineStr"/>
+      <c r="AG12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT12" t="inlineStr"/>
+      <c r="AW12" t="inlineStr">
+        <is>
+          <t>Bengt Oldhammer</t>
+        </is>
+      </c>
+      <c r="AX12" t="inlineStr">
+        <is>
+          <t>Bengt Oldhammer</t>
+        </is>
+      </c>
+      <c r="AY12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>131202678</v>
+      </c>
+      <c r="B13" t="n">
+        <v>57881</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>100049</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Dryocopus martius</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr"/>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Ore älv, södra sidan, öster Flygfältsvägen, Dlr</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>485445</v>
+      </c>
+      <c r="R13" t="n">
+        <v>6783152</v>
+      </c>
+      <c r="S13" t="n">
+        <v>10</v>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>Orsa</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>Orsa</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="AD13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT13" t="inlineStr"/>
+      <c r="AW13" t="inlineStr">
+        <is>
+          <t>Bengt Oldhammer</t>
+        </is>
+      </c>
+      <c r="AX13" t="inlineStr">
+        <is>
+          <t>Bengt Oldhammer</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>131198868</v>
+      </c>
+      <c r="B14" t="n">
+        <v>8451</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>106545</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Mindre märgborre</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Tomicus minor</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>(Hartig, 1834)</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr"/>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Ore älv, södra sidan, öster Flygfältsvägen, Dlr</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>485442</v>
+      </c>
+      <c r="R14" t="n">
+        <v>6783096</v>
+      </c>
+      <c r="S14" t="n">
+        <v>10</v>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>Orsa</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>Orsa</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="AD14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF14" t="inlineStr"/>
+      <c r="AG14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT14" t="inlineStr"/>
+      <c r="AW14" t="inlineStr">
+        <is>
+          <t>Bengt Oldhammer</t>
+        </is>
+      </c>
+      <c r="AX14" t="inlineStr">
+        <is>
+          <t>Bengt Oldhammer</t>
+        </is>
+      </c>
+      <c r="AY14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>131198932</v>
+      </c>
+      <c r="B15" t="n">
+        <v>57881</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>100049</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Dryocopus martius</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr"/>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Ore älv, södra sidan, öster Flygfältsvägen, Dlr</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>485465</v>
+      </c>
+      <c r="R15" t="n">
+        <v>6783166</v>
+      </c>
+      <c r="S15" t="n">
+        <v>10</v>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>Orsa</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>Orsa</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="AD15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT15" t="inlineStr"/>
+      <c r="AW15" t="inlineStr">
+        <is>
+          <t>Bengt Oldhammer</t>
+        </is>
+      </c>
+      <c r="AX15" t="inlineStr">
+        <is>
+          <t>Bengt Oldhammer</t>
+        </is>
+      </c>
+      <c r="AY15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>131202644</v>
+      </c>
+      <c r="B16" t="n">
+        <v>57881</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>100049</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Dryocopus martius</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr"/>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Ore älv, södra sidan, öster Flygfältsvägen, Dlr</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>485532</v>
+      </c>
+      <c r="R16" t="n">
+        <v>6783177</v>
+      </c>
+      <c r="S16" t="n">
+        <v>10</v>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>Orsa</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>Orsa</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="AD16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT16" t="inlineStr"/>
+      <c r="AW16" t="inlineStr">
+        <is>
+          <t>Bengt Oldhammer</t>
+        </is>
+      </c>
+      <c r="AX16" t="inlineStr">
+        <is>
+          <t>Bengt Oldhammer</t>
+        </is>
+      </c>
+      <c r="AY16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>131199101</v>
+      </c>
+      <c r="B17" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Ore älv, södra sidan, öster Flygfältsvägen, Dlr</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>485504</v>
+      </c>
+      <c r="R17" t="n">
+        <v>6783172</v>
+      </c>
+      <c r="S17" t="n">
+        <v>10</v>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>Orsa</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>Orsa</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>Små barkflagor/flisor på snön runt trädet samt hackmärke i stammens splintved</t>
+        </is>
+      </c>
+      <c r="AD17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT17" t="inlineStr"/>
+      <c r="AW17" t="inlineStr">
+        <is>
+          <t>Bengt Oldhammer</t>
+        </is>
+      </c>
+      <c r="AX17" t="inlineStr">
+        <is>
+          <t>Bengt Oldhammer</t>
+        </is>
+      </c>
+      <c r="AY17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>131199027</v>
+      </c>
+      <c r="B18" t="n">
+        <v>8451</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>106545</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Mindre märgborre</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Tomicus minor</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>(Hartig, 1834)</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr"/>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Ore älv, södra sidan, öster Flygfältsvägen, Dlr</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>485480</v>
+      </c>
+      <c r="R18" t="n">
+        <v>6783139</v>
+      </c>
+      <c r="S18" t="n">
+        <v>10</v>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>Orsa</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>Orsa</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>rikligt på flera träd, minst tre träd</t>
+        </is>
+      </c>
+      <c r="AD18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF18" t="inlineStr"/>
+      <c r="AG18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT18" t="inlineStr"/>
+      <c r="AW18" t="inlineStr">
+        <is>
+          <t>Bengt Oldhammer</t>
+        </is>
+      </c>
+      <c r="AX18" t="inlineStr">
+        <is>
+          <t>Bengt Oldhammer</t>
+        </is>
+      </c>
+      <c r="AY18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>131202209</v>
+      </c>
+      <c r="B19" t="n">
+        <v>57881</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>100049</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Dryocopus martius</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr"/>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Ore älv, södra sidan, öster Flygfältsvägen, Dlr</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>485422</v>
+      </c>
+      <c r="R19" t="n">
+        <v>6783087</v>
+      </c>
+      <c r="S19" t="n">
+        <v>10</v>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>Orsa</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>Orsa</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="AD19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT19" t="inlineStr"/>
+      <c r="AW19" t="inlineStr">
+        <is>
+          <t>Bengt Oldhammer</t>
+        </is>
+      </c>
+      <c r="AX19" t="inlineStr">
+        <is>
+          <t>Bengt Oldhammer</t>
+        </is>
+      </c>
+      <c r="AY19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>131202220</v>
+      </c>
+      <c r="B20" t="n">
+        <v>8451</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>106545</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Mindre märgborre</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Tomicus minor</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>(Hartig, 1834)</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr"/>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Ore älv, södra sidan, öster Flygfältsvägen, Dlr</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>485506</v>
+      </c>
+      <c r="R20" t="n">
+        <v>6783094</v>
+      </c>
+      <c r="S20" t="n">
+        <v>10</v>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>Orsa</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>Orsa</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="AD20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF20" t="inlineStr"/>
+      <c r="AG20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT20" t="inlineStr"/>
+      <c r="AW20" t="inlineStr">
+        <is>
+          <t>Bengt Oldhammer</t>
+        </is>
+      </c>
+      <c r="AX20" t="inlineStr">
+        <is>
+          <t>Bengt Oldhammer</t>
+        </is>
+      </c>
+      <c r="AY20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>131202213</v>
+      </c>
+      <c r="B21" t="n">
+        <v>8451</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>106545</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Mindre märgborre</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Tomicus minor</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>(Hartig, 1834)</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr"/>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Ore älv, södra sidan, öster Flygfältsvägen, Dlr</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>485480</v>
+      </c>
+      <c r="R21" t="n">
+        <v>6783087</v>
+      </c>
+      <c r="S21" t="n">
+        <v>10</v>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>Orsa</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>Orsa</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="AD21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF21" t="inlineStr"/>
+      <c r="AG21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT21" t="inlineStr"/>
+      <c r="AW21" t="inlineStr">
+        <is>
+          <t>Bengt Oldhammer</t>
+        </is>
+      </c>
+      <c r="AX21" t="inlineStr">
+        <is>
+          <t>Bengt Oldhammer</t>
+        </is>
+      </c>
+      <c r="AY21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>131202661</v>
+      </c>
+      <c r="B22" t="n">
+        <v>8451</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>106545</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Mindre märgborre</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Tomicus minor</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>(Hartig, 1834)</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr"/>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Ore älv, södra sidan, öster Flygfältsvägen, Dlr</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>485435</v>
+      </c>
+      <c r="R22" t="n">
+        <v>6783121</v>
+      </c>
+      <c r="S22" t="n">
+        <v>10</v>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>Orsa</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>Orsa</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="AD22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF22" t="inlineStr"/>
+      <c r="AG22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT22" t="inlineStr"/>
+      <c r="AW22" t="inlineStr">
+        <is>
+          <t>Bengt Oldhammer</t>
+        </is>
+      </c>
+      <c r="AX22" t="inlineStr">
+        <is>
+          <t>Bengt Oldhammer</t>
+        </is>
+      </c>
+      <c r="AY22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>131199050</v>
+      </c>
+      <c r="B23" t="n">
+        <v>8451</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>106545</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Mindre märgborre</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Tomicus minor</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>(Hartig, 1834)</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr"/>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Ore älv, södra sidan, öster Flygfältsvägen, Dlr</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>485504</v>
+      </c>
+      <c r="R23" t="n">
+        <v>6783172</v>
+      </c>
+      <c r="S23" t="n">
+        <v>10</v>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>Orsa</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>Orsa</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="AD23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF23" t="inlineStr"/>
+      <c r="AG23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT23" t="inlineStr"/>
+      <c r="AW23" t="inlineStr">
+        <is>
+          <t>Bengt Oldhammer</t>
+        </is>
+      </c>
+      <c r="AX23" t="inlineStr">
+        <is>
+          <t>Bengt Oldhammer</t>
+        </is>
+      </c>
+      <c r="AY23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>131199107</v>
+      </c>
+      <c r="B24" t="n">
+        <v>8451</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>106545</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Mindre märgborre</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Tomicus minor</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>(Hartig, 1834)</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr"/>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Ore älv, södra sidan, öster Flygfältsvägen, Dlr</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>485476</v>
+      </c>
+      <c r="R24" t="n">
+        <v>6783098</v>
+      </c>
+      <c r="S24" t="n">
+        <v>10</v>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>Orsa</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>Orsa</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="AD24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF24" t="inlineStr"/>
+      <c r="AG24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT24" t="inlineStr"/>
+      <c r="AW24" t="inlineStr">
+        <is>
+          <t>Bengt Oldhammer</t>
+        </is>
+      </c>
+      <c r="AX24" t="inlineStr">
+        <is>
+          <t>Bengt Oldhammer</t>
+        </is>
+      </c>
+      <c r="AY24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>131202538</v>
+      </c>
+      <c r="B25" t="n">
+        <v>8451</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>106545</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Mindre märgborre</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Tomicus minor</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>(Hartig, 1834)</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr"/>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Ore älv, södra sidan, öster Flygfältsvägen, Dlr</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
+        <v>485500</v>
+      </c>
+      <c r="R25" t="n">
+        <v>6783141</v>
+      </c>
+      <c r="S25" t="n">
+        <v>10</v>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>Orsa</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>Orsa</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="AD25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF25" t="inlineStr"/>
+      <c r="AG25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT25" t="inlineStr"/>
+      <c r="AW25" t="inlineStr">
+        <is>
+          <t>Bengt Oldhammer</t>
+        </is>
+      </c>
+      <c r="AX25" t="inlineStr">
+        <is>
+          <t>Bengt Oldhammer</t>
+        </is>
+      </c>
+      <c r="AY25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>131198972</v>
+      </c>
+      <c r="B26" t="n">
+        <v>8451</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>106545</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Mindre märgborre</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Tomicus minor</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>(Hartig, 1834)</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr"/>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Ore älv, södra sidan, öster Flygfältsvägen, Dlr</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>485466</v>
+      </c>
+      <c r="R26" t="n">
+        <v>6783153</v>
+      </c>
+      <c r="S26" t="n">
+        <v>10</v>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>Orsa</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>Orsa</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="AD26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF26" t="inlineStr"/>
+      <c r="AG26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT26" t="inlineStr"/>
+      <c r="AW26" t="inlineStr">
+        <is>
+          <t>Bengt Oldhammer</t>
+        </is>
+      </c>
+      <c r="AX26" t="inlineStr">
+        <is>
+          <t>Bengt Oldhammer</t>
+        </is>
+      </c>
+      <c r="AY26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>131202513</v>
+      </c>
+      <c r="B27" t="n">
+        <v>57881</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>100049</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Dryocopus martius</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr"/>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Ore älv, södra sidan, öster Flygfältsvägen, Dlr</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>485525</v>
+      </c>
+      <c r="R27" t="n">
+        <v>6783113</v>
+      </c>
+      <c r="S27" t="n">
+        <v>10</v>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>Orsa</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>Orsa</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="AD27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT27" t="inlineStr"/>
+      <c r="AW27" t="inlineStr">
+        <is>
+          <t>Bengt Oldhammer</t>
+        </is>
+      </c>
+      <c r="AX27" t="inlineStr">
+        <is>
+          <t>Bengt Oldhammer</t>
+        </is>
+      </c>
+      <c r="AY27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>131198980</v>
+      </c>
+      <c r="B28" t="n">
+        <v>8451</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>106545</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Mindre märgborre</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Tomicus minor</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>(Hartig, 1834)</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr"/>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Ore älv, södra sidan, öster Flygfältsvägen, Dlr</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>485469</v>
+      </c>
+      <c r="R28" t="n">
+        <v>6783154</v>
+      </c>
+      <c r="S28" t="n">
+        <v>10</v>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>Orsa</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>Orsa</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="AD28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF28" t="inlineStr"/>
+      <c r="AG28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT28" t="inlineStr"/>
+      <c r="AW28" t="inlineStr">
+        <is>
+          <t>Bengt Oldhammer</t>
+        </is>
+      </c>
+      <c r="AX28" t="inlineStr">
+        <is>
+          <t>Bengt Oldhammer</t>
+        </is>
+      </c>
+      <c r="AY28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>131198957</v>
+      </c>
+      <c r="B29" t="n">
+        <v>8451</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>106545</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Mindre märgborre</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Tomicus minor</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>(Hartig, 1834)</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr"/>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Ore älv, södra sidan, öster Flygfältsvägen, Dlr</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>485462</v>
+      </c>
+      <c r="R29" t="n">
+        <v>6783155</v>
+      </c>
+      <c r="S29" t="n">
+        <v>10</v>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>Orsa</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>Orsa</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="AD29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF29" t="inlineStr"/>
+      <c r="AG29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT29" t="inlineStr"/>
+      <c r="AW29" t="inlineStr">
+        <is>
+          <t>Bengt Oldhammer</t>
+        </is>
+      </c>
+      <c r="AX29" t="inlineStr">
+        <is>
+          <t>Bengt Oldhammer</t>
+        </is>
+      </c>
+      <c r="AY29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>131198878</v>
+      </c>
+      <c r="B30" t="n">
+        <v>8451</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>106545</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Mindre märgborre</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Tomicus minor</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>(Hartig, 1834)</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr"/>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Ore älv, södra sidan, öster Flygfältsvägen, Dlr</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>485456</v>
+      </c>
+      <c r="R30" t="n">
+        <v>6783129</v>
+      </c>
+      <c r="S30" t="n">
+        <v>10</v>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>Orsa</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>Orsa</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="AA30" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="AD30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF30" t="inlineStr"/>
+      <c r="AG30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT30" t="inlineStr"/>
+      <c r="AW30" t="inlineStr">
+        <is>
+          <t>Bengt Oldhammer</t>
+        </is>
+      </c>
+      <c r="AX30" t="inlineStr">
+        <is>
+          <t>Bengt Oldhammer</t>
+        </is>
+      </c>
+      <c r="AY30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>131202509</v>
+      </c>
+      <c r="B31" t="n">
+        <v>8451</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>106545</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Mindre märgborre</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Tomicus minor</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>(Hartig, 1834)</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr"/>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Ore älv, södra sidan, öster Flygfältsvägen, Dlr</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>485525</v>
+      </c>
+      <c r="R31" t="n">
+        <v>6783113</v>
+      </c>
+      <c r="S31" t="n">
+        <v>10</v>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>Orsa</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>Orsa</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="AA31" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="AD31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF31" t="inlineStr"/>
+      <c r="AG31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT31" t="inlineStr"/>
+      <c r="AW31" t="inlineStr">
+        <is>
+          <t>Bengt Oldhammer</t>
+        </is>
+      </c>
+      <c r="AX31" t="inlineStr">
+        <is>
+          <t>Bengt Oldhammer</t>
+        </is>
+      </c>
+      <c r="AY31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>131202310</v>
+      </c>
+      <c r="B32" t="n">
+        <v>8451</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>106545</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Mindre märgborre</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Tomicus minor</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>(Hartig, 1834)</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr"/>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Ore älv, södra sidan, öster Flygfältsvägen, Dlr</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>485517</v>
+      </c>
+      <c r="R32" t="n">
+        <v>6783102</v>
+      </c>
+      <c r="S32" t="n">
+        <v>10</v>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>Orsa</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>Orsa</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="AA32" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="AD32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF32" t="inlineStr"/>
+      <c r="AG32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT32" t="inlineStr"/>
+      <c r="AW32" t="inlineStr">
+        <is>
+          <t>Bengt Oldhammer</t>
+        </is>
+      </c>
+      <c r="AX32" t="inlineStr">
+        <is>
+          <t>Bengt Oldhammer</t>
+        </is>
+      </c>
+      <c r="AY32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>131202595</v>
+      </c>
+      <c r="B33" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr"/>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Ore älv, södra sidan, öster Flygfältsvägen, Dlr</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>485519</v>
+      </c>
+      <c r="R33" t="n">
+        <v>6783172</v>
+      </c>
+      <c r="S33" t="n">
+        <v>25</v>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>Orsa</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>Orsa</t>
+        </is>
+      </c>
+      <c r="Y33" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="AA33" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="AD33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT33" t="inlineStr"/>
+      <c r="AW33" t="inlineStr">
+        <is>
+          <t>Bengt Oldhammer</t>
+        </is>
+      </c>
+      <c r="AX33" t="inlineStr">
+        <is>
+          <t>Bengt Oldhammer</t>
+        </is>
+      </c>
+      <c r="AY33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>131198849</v>
+      </c>
+      <c r="B34" t="n">
+        <v>8451</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>106545</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Mindre märgborre</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Tomicus minor</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>(Hartig, 1834)</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr"/>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Ore älv, södra sidan, öster Flygfältsvägen, Dlr</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>485436</v>
+      </c>
+      <c r="R34" t="n">
+        <v>6783096</v>
+      </c>
+      <c r="S34" t="n">
+        <v>10</v>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>Orsa</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>Orsa</t>
+        </is>
+      </c>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="AA34" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="AC34" t="inlineStr">
+        <is>
+          <t>rikligt</t>
+        </is>
+      </c>
+      <c r="AD34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF34" t="inlineStr"/>
+      <c r="AG34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT34" t="inlineStr"/>
+      <c r="AW34" t="inlineStr">
+        <is>
+          <t>Bengt Oldhammer</t>
+        </is>
+      </c>
+      <c r="AX34" t="inlineStr">
+        <is>
+          <t>Bengt Oldhammer</t>
+        </is>
+      </c>
+      <c r="AY34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>131202666</v>
+      </c>
+      <c r="B35" t="n">
+        <v>91829</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>5442</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Tallticka</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Porodaedalea pini</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>(Brot.) Murrill</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Ore älv, södra sidan, öster Flygfältsvägen, Dlr</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>485435</v>
+      </c>
+      <c r="R35" t="n">
+        <v>6783121</v>
+      </c>
+      <c r="S35" t="n">
+        <v>10</v>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Orsa</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>Orsa</t>
+        </is>
+      </c>
+      <c r="Y35" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="AA35" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="AD35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF35" t="inlineStr"/>
+      <c r="AG35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT35" t="inlineStr"/>
+      <c r="AW35" t="inlineStr">
+        <is>
+          <t>Bengt Oldhammer</t>
+        </is>
+      </c>
+      <c r="AX35" t="inlineStr">
+        <is>
+          <t>Bengt Oldhammer</t>
+        </is>
+      </c>
+      <c r="AY35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>131198916</v>
+      </c>
+      <c r="B36" t="n">
+        <v>57881</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>100049</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Dryocopus martius</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr"/>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Ore älv, södra sidan, öster Flygfältsvägen, Dlr</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>485454</v>
+      </c>
+      <c r="R36" t="n">
+        <v>6783164</v>
+      </c>
+      <c r="S36" t="n">
+        <v>10</v>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Orsa</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>Orsa</t>
+        </is>
+      </c>
+      <c r="Y36" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="AA36" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="AD36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT36" t="inlineStr"/>
+      <c r="AW36" t="inlineStr">
+        <is>
+          <t>Bengt Oldhammer</t>
+        </is>
+      </c>
+      <c r="AX36" t="inlineStr">
+        <is>
+          <t>Bengt Oldhammer</t>
+        </is>
+      </c>
+      <c r="AY36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>131202551</v>
+      </c>
+      <c r="B37" t="n">
+        <v>8451</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>106545</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Mindre märgborre</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Tomicus minor</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>(Hartig, 1834)</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr"/>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Ore älv, södra sidan, öster Flygfältsvägen, Dlr</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>485519</v>
+      </c>
+      <c r="R37" t="n">
+        <v>6783177</v>
+      </c>
+      <c r="S37" t="n">
+        <v>10</v>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Orsa</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>Orsa</t>
+        </is>
+      </c>
+      <c r="Y37" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="AA37" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="AD37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF37" t="inlineStr"/>
+      <c r="AG37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT37" t="inlineStr"/>
+      <c r="AW37" t="inlineStr">
+        <is>
+          <t>Bengt Oldhammer</t>
+        </is>
+      </c>
+      <c r="AX37" t="inlineStr">
+        <is>
+          <t>Bengt Oldhammer</t>
+        </is>
+      </c>
+      <c r="AY37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>131202630</v>
+      </c>
+      <c r="B38" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr"/>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Ore älv, södra sidan, öster Flygfältsvägen, Dlr</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>485526</v>
+      </c>
+      <c r="R38" t="n">
+        <v>6783143</v>
+      </c>
+      <c r="S38" t="n">
+        <v>10</v>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Orsa</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>Orsa</t>
+        </is>
+      </c>
+      <c r="Y38" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="AA38" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="AD38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT38" t="inlineStr"/>
+      <c r="AW38" t="inlineStr">
+        <is>
+          <t>Bengt Oldhammer</t>
+        </is>
+      </c>
+      <c r="AX38" t="inlineStr">
+        <is>
+          <t>Bengt Oldhammer</t>
+        </is>
+      </c>
+      <c r="AY38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>131199044</v>
+      </c>
+      <c r="B39" t="n">
+        <v>57881</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>100049</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Dryocopus martius</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr"/>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Ore älv, södra sidan, öster Flygfältsvägen, Dlr</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>485494</v>
+      </c>
+      <c r="R39" t="n">
+        <v>6783163</v>
+      </c>
+      <c r="S39" t="n">
+        <v>10</v>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Orsa</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>Orsa</t>
+        </is>
+      </c>
+      <c r="Y39" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="AA39" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="AD39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT39" t="inlineStr"/>
+      <c r="AW39" t="inlineStr">
+        <is>
+          <t>Bengt Oldhammer</t>
+        </is>
+      </c>
+      <c r="AX39" t="inlineStr">
+        <is>
+          <t>Bengt Oldhammer</t>
+        </is>
+      </c>
+      <c r="AY39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>131198860</v>
+      </c>
+      <c r="B40" t="n">
+        <v>57881</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>100049</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Dryocopus martius</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr"/>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Ore älv, södra sidan, öster Flygfältsvägen, Dlr</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>485442</v>
+      </c>
+      <c r="R40" t="n">
+        <v>6783096</v>
+      </c>
+      <c r="S40" t="n">
+        <v>10</v>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>Orsa</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>Orsa</t>
+        </is>
+      </c>
+      <c r="Y40" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="AA40" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="AD40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT40" t="inlineStr"/>
+      <c r="AW40" t="inlineStr">
+        <is>
+          <t>Bengt Oldhammer</t>
+        </is>
+      </c>
+      <c r="AX40" t="inlineStr">
+        <is>
+          <t>Bengt Oldhammer</t>
+        </is>
+      </c>
+      <c r="AY40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>131198876</v>
+      </c>
+      <c r="B41" t="n">
+        <v>8451</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>106545</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Mindre märgborre</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Tomicus minor</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>(Hartig, 1834)</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr"/>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>Ore älv, södra sidan, öster Flygfältsvägen, Dlr</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>485451</v>
+      </c>
+      <c r="R41" t="n">
+        <v>6783118</v>
+      </c>
+      <c r="S41" t="n">
+        <v>10</v>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>Orsa</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>Orsa</t>
+        </is>
+      </c>
+      <c r="Y41" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="AA41" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="AD41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF41" t="inlineStr"/>
+      <c r="AG41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT41" t="inlineStr"/>
+      <c r="AW41" t="inlineStr">
+        <is>
+          <t>Bengt Oldhammer</t>
+        </is>
+      </c>
+      <c r="AX41" t="inlineStr">
+        <is>
+          <t>Bengt Oldhammer</t>
+        </is>
+      </c>
+      <c r="AY41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>131198882</v>
+      </c>
+      <c r="B42" t="n">
+        <v>8451</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>106545</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Mindre märgborre</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Tomicus minor</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>(Hartig, 1834)</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr"/>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>Ore älv, södra sidan, öster Flygfältsvägen, Dlr</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>485450</v>
+      </c>
+      <c r="R42" t="n">
+        <v>6783145</v>
+      </c>
+      <c r="S42" t="n">
+        <v>10</v>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>Orsa</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>Orsa</t>
+        </is>
+      </c>
+      <c r="Y42" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="AA42" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="AD42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF42" t="inlineStr"/>
+      <c r="AG42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT42" t="inlineStr"/>
+      <c r="AW42" t="inlineStr">
+        <is>
+          <t>Bengt Oldhammer</t>
+        </is>
+      </c>
+      <c r="AX42" t="inlineStr">
+        <is>
+          <t>Bengt Oldhammer</t>
+        </is>
+      </c>
+      <c r="AY42" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 6034-2026 artfynd.xlsx
+++ b/artfynd/A 6034-2026 artfynd.xlsx
@@ -1811,41 +1811,40 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131202690</v>
+        <v>131202678</v>
       </c>
       <c r="B12" t="n">
-        <v>8451</v>
+        <v>57881</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>106545</v>
+        <v>100049</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>äldre gnagspår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N12" t="inlineStr"/>
@@ -1855,10 +1854,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>485448</v>
+        <v>485445</v>
       </c>
       <c r="R12" t="n">
-        <v>6783153</v>
+        <v>6783152</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1899,7 +1898,6 @@
       <c r="AE12" t="b">
         <v>0</v>
       </c>
-      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
@@ -1918,40 +1916,41 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131202678</v>
+        <v>131202690</v>
       </c>
       <c r="B13" t="n">
-        <v>57881</v>
+        <v>8451</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>100049</v>
+        <v>106545</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>äldre gnagspår</t>
         </is>
       </c>
       <c r="N13" t="inlineStr"/>
@@ -1961,10 +1960,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>485445</v>
+        <v>485448</v>
       </c>
       <c r="R13" t="n">
-        <v>6783152</v>
+        <v>6783153</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2005,6 +2004,7 @@
       <c r="AE13" t="b">
         <v>0</v>
       </c>
+      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
       </c>
@@ -3206,7 +3206,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>131202538</v>
+        <v>131198972</v>
       </c>
       <c r="B25" t="n">
         <v>8451</v>
@@ -3250,10 +3250,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>485500</v>
+        <v>485466</v>
       </c>
       <c r="R25" t="n">
-        <v>6783141</v>
+        <v>6783153</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3313,7 +3313,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>131198972</v>
+        <v>131202538</v>
       </c>
       <c r="B26" t="n">
         <v>8451</v>
@@ -3357,10 +3357,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>485466</v>
+        <v>485500</v>
       </c>
       <c r="R26" t="n">
-        <v>6783153</v>
+        <v>6783141</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3846,7 +3846,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>131202509</v>
+        <v>131198849</v>
       </c>
       <c r="B31" t="n">
         <v>8451</v>
@@ -3890,10 +3890,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>485525</v>
+        <v>485436</v>
       </c>
       <c r="R31" t="n">
-        <v>6783113</v>
+        <v>6783096</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -3926,6 +3926,11 @@
       <c r="AA31" t="inlineStr">
         <is>
           <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="AC31" t="inlineStr">
+        <is>
+          <t>rikligt</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -3953,41 +3958,40 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>131202310</v>
+        <v>131202595</v>
       </c>
       <c r="B32" t="n">
-        <v>8451</v>
+        <v>57884</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>106545</v>
+        <v>100109</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
-          <t>äldre gnagspår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N32" t="inlineStr"/>
@@ -3997,13 +4001,13 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>485517</v>
+        <v>485519</v>
       </c>
       <c r="R32" t="n">
-        <v>6783102</v>
+        <v>6783172</v>
       </c>
       <c r="S32" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -4041,7 +4045,6 @@
       <c r="AE32" t="b">
         <v>0</v>
       </c>
-      <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="b">
         <v>0</v>
       </c>
@@ -4060,40 +4063,41 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>131202595</v>
+        <v>131202509</v>
       </c>
       <c r="B33" t="n">
-        <v>57884</v>
+        <v>8451</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>100109</v>
+        <v>106545</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre gnagspår</t>
         </is>
       </c>
       <c r="N33" t="inlineStr"/>
@@ -4103,13 +4107,13 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>485519</v>
+        <v>485525</v>
       </c>
       <c r="R33" t="n">
-        <v>6783172</v>
+        <v>6783113</v>
       </c>
       <c r="S33" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -4147,6 +4151,7 @@
       <c r="AE33" t="b">
         <v>0</v>
       </c>
+      <c r="AF33" t="inlineStr"/>
       <c r="AG33" t="b">
         <v>0</v>
       </c>
@@ -4165,7 +4170,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>131198849</v>
+        <v>131202310</v>
       </c>
       <c r="B34" t="n">
         <v>8451</v>
@@ -4209,10 +4214,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>485436</v>
+        <v>485517</v>
       </c>
       <c r="R34" t="n">
-        <v>6783096</v>
+        <v>6783102</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4245,11 +4250,6 @@
       <c r="AA34" t="inlineStr">
         <is>
           <t>2026-02-17</t>
-        </is>
-      </c>
-      <c r="AC34" t="inlineStr">
-        <is>
-          <t>rikligt</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4280,7 +4280,7 @@
         <v>131202666</v>
       </c>
       <c r="B35" t="n">
-        <v>91829</v>
+        <v>91830</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4594,10 +4594,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>131202630</v>
+        <v>131199044</v>
       </c>
       <c r="B38" t="n">
-        <v>57884</v>
+        <v>57881</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4605,16 +4605,16 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>100109</v>
+        <v>100049</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -4637,10 +4637,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>485526</v>
+        <v>485494</v>
       </c>
       <c r="R38" t="n">
-        <v>6783143</v>
+        <v>6783163</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4699,7 +4699,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>131199044</v>
+        <v>131198860</v>
       </c>
       <c r="B39" t="n">
         <v>57881</v>
@@ -4742,10 +4742,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>485494</v>
+        <v>485442</v>
       </c>
       <c r="R39" t="n">
-        <v>6783163</v>
+        <v>6783096</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4804,10 +4804,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>131198860</v>
+        <v>131202630</v>
       </c>
       <c r="B40" t="n">
-        <v>57881</v>
+        <v>57884</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4815,16 +4815,16 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>100049</v>
+        <v>100109</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -4847,10 +4847,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>485442</v>
+        <v>485526</v>
       </c>
       <c r="R40" t="n">
-        <v>6783096</v>
+        <v>6783143</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>

--- a/artfynd/A 6034-2026 artfynd.xlsx
+++ b/artfynd/A 6034-2026 artfynd.xlsx
@@ -2450,45 +2450,40 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>131199027</v>
+        <v>131202209</v>
       </c>
       <c r="B18" t="n">
-        <v>8451</v>
+        <v>57881</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>106545</v>
+        <v>100049</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>äldre gnagspår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N18" t="inlineStr"/>
@@ -2498,10 +2493,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>485480</v>
+        <v>485422</v>
       </c>
       <c r="R18" t="n">
-        <v>6783139</v>
+        <v>6783087</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2536,18 +2531,12 @@
           <t>2026-02-17</t>
         </is>
       </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>rikligt på flera träd, minst tre träd</t>
-        </is>
-      </c>
       <c r="AD18" t="b">
         <v>0</v>
       </c>
       <c r="AE18" t="b">
         <v>0</v>
       </c>
-      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
@@ -2566,40 +2555,41 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>131202209</v>
+        <v>131202220</v>
       </c>
       <c r="B19" t="n">
-        <v>57881</v>
+        <v>8451</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>100049</v>
+        <v>106545</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>äldre gnagspår</t>
         </is>
       </c>
       <c r="N19" t="inlineStr"/>
@@ -2609,10 +2599,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>485422</v>
+        <v>485506</v>
       </c>
       <c r="R19" t="n">
-        <v>6783087</v>
+        <v>6783094</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2653,6 +2643,7 @@
       <c r="AE19" t="b">
         <v>0</v>
       </c>
+      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
@@ -2671,7 +2662,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>131202220</v>
+        <v>131199027</v>
       </c>
       <c r="B20" t="n">
         <v>8451</v>
@@ -2699,7 +2690,11 @@
           <t>(Hartig, 1834)</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
@@ -2715,10 +2710,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>485506</v>
+        <v>485480</v>
       </c>
       <c r="R20" t="n">
-        <v>6783094</v>
+        <v>6783139</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2751,6 +2746,11 @@
       <c r="AA20" t="inlineStr">
         <is>
           <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>rikligt på flera träd, minst tre träd</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2778,7 +2778,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>131202213</v>
+        <v>131199050</v>
       </c>
       <c r="B21" t="n">
         <v>8451</v>
@@ -2822,10 +2822,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>485480</v>
+        <v>485504</v>
       </c>
       <c r="R21" t="n">
-        <v>6783087</v>
+        <v>6783172</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2885,7 +2885,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>131202661</v>
+        <v>131199107</v>
       </c>
       <c r="B22" t="n">
         <v>8451</v>
@@ -2929,10 +2929,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>485435</v>
+        <v>485476</v>
       </c>
       <c r="R22" t="n">
-        <v>6783121</v>
+        <v>6783098</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2992,7 +2992,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>131199050</v>
+        <v>131202213</v>
       </c>
       <c r="B23" t="n">
         <v>8451</v>
@@ -3036,10 +3036,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>485504</v>
+        <v>485480</v>
       </c>
       <c r="R23" t="n">
-        <v>6783172</v>
+        <v>6783087</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3099,7 +3099,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>131199107</v>
+        <v>131202661</v>
       </c>
       <c r="B24" t="n">
         <v>8451</v>
@@ -3143,10 +3143,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>485476</v>
+        <v>485435</v>
       </c>
       <c r="R24" t="n">
-        <v>6783098</v>
+        <v>6783121</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3846,41 +3846,40 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>131198849</v>
+        <v>131202595</v>
       </c>
       <c r="B31" t="n">
-        <v>8451</v>
+        <v>57884</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>106545</v>
+        <v>100109</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
-          <t>äldre gnagspår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N31" t="inlineStr"/>
@@ -3890,13 +3889,13 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>485436</v>
+        <v>485519</v>
       </c>
       <c r="R31" t="n">
-        <v>6783096</v>
+        <v>6783172</v>
       </c>
       <c r="S31" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -3928,18 +3927,12 @@
           <t>2026-02-17</t>
         </is>
       </c>
-      <c r="AC31" t="inlineStr">
-        <is>
-          <t>rikligt</t>
-        </is>
-      </c>
       <c r="AD31" t="b">
         <v>0</v>
       </c>
       <c r="AE31" t="b">
         <v>0</v>
       </c>
-      <c r="AF31" t="inlineStr"/>
       <c r="AG31" t="b">
         <v>0</v>
       </c>
@@ -3958,40 +3951,41 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>131202595</v>
+        <v>131202509</v>
       </c>
       <c r="B32" t="n">
-        <v>57884</v>
+        <v>8451</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>100109</v>
+        <v>106545</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre gnagspår</t>
         </is>
       </c>
       <c r="N32" t="inlineStr"/>
@@ -4001,13 +3995,13 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>485519</v>
+        <v>485525</v>
       </c>
       <c r="R32" t="n">
-        <v>6783172</v>
+        <v>6783113</v>
       </c>
       <c r="S32" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -4045,6 +4039,7 @@
       <c r="AE32" t="b">
         <v>0</v>
       </c>
+      <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="b">
         <v>0</v>
       </c>
@@ -4063,7 +4058,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>131202509</v>
+        <v>131202310</v>
       </c>
       <c r="B33" t="n">
         <v>8451</v>
@@ -4107,10 +4102,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>485525</v>
+        <v>485517</v>
       </c>
       <c r="R33" t="n">
-        <v>6783113</v>
+        <v>6783102</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4170,7 +4165,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>131202310</v>
+        <v>131198849</v>
       </c>
       <c r="B34" t="n">
         <v>8451</v>
@@ -4214,10 +4209,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>485517</v>
+        <v>485436</v>
       </c>
       <c r="R34" t="n">
-        <v>6783102</v>
+        <v>6783096</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4250,6 +4245,11 @@
       <c r="AA34" t="inlineStr">
         <is>
           <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="AC34" t="inlineStr">
+        <is>
+          <t>rikligt</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4277,10 +4277,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>131202666</v>
+        <v>131198916</v>
       </c>
       <c r="B35" t="n">
-        <v>91830</v>
+        <v>57881</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4288,30 +4288,31 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>5442</v>
+        <v>100049</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
@@ -4319,10 +4320,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>485435</v>
+        <v>485454</v>
       </c>
       <c r="R35" t="n">
-        <v>6783121</v>
+        <v>6783164</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4363,7 +4364,6 @@
       <c r="AE35" t="b">
         <v>0</v>
       </c>
-      <c r="AF35" t="inlineStr"/>
       <c r="AG35" t="b">
         <v>0</v>
       </c>
@@ -4382,10 +4382,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>131198916</v>
+        <v>131202666</v>
       </c>
       <c r="B36" t="n">
-        <v>57881</v>
+        <v>91830</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4393,31 +4393,30 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>100049</v>
+        <v>5442</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr"/>
+          <t>(Brot.) Murrill</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
@@ -4425,10 +4424,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>485454</v>
+        <v>485435</v>
       </c>
       <c r="R36" t="n">
-        <v>6783164</v>
+        <v>6783121</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4469,6 +4468,7 @@
       <c r="AE36" t="b">
         <v>0</v>
       </c>
+      <c r="AF36" t="inlineStr"/>
       <c r="AG36" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 6034-2026 artfynd.xlsx
+++ b/artfynd/A 6034-2026 artfynd.xlsx
@@ -2450,40 +2450,45 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>131202209</v>
+        <v>131199027</v>
       </c>
       <c r="B18" t="n">
-        <v>57881</v>
+        <v>8451</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>100049</v>
+        <v>106545</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr"/>
+          <t>(Hartig, 1834)</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>äldre gnagspår</t>
         </is>
       </c>
       <c r="N18" t="inlineStr"/>
@@ -2493,10 +2498,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>485422</v>
+        <v>485480</v>
       </c>
       <c r="R18" t="n">
-        <v>6783087</v>
+        <v>6783139</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2531,12 +2536,18 @@
           <t>2026-02-17</t>
         </is>
       </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>rikligt på flera träd, minst tre träd</t>
+        </is>
+      </c>
       <c r="AD18" t="b">
         <v>0</v>
       </c>
       <c r="AE18" t="b">
         <v>0</v>
       </c>
+      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
@@ -2555,41 +2566,40 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>131202220</v>
+        <v>131202209</v>
       </c>
       <c r="B19" t="n">
-        <v>8451</v>
+        <v>57881</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>106545</v>
+        <v>100049</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>äldre gnagspår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N19" t="inlineStr"/>
@@ -2599,10 +2609,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>485506</v>
+        <v>485422</v>
       </c>
       <c r="R19" t="n">
-        <v>6783094</v>
+        <v>6783087</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2643,7 +2653,6 @@
       <c r="AE19" t="b">
         <v>0</v>
       </c>
-      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
@@ -2662,7 +2671,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>131199027</v>
+        <v>131202220</v>
       </c>
       <c r="B20" t="n">
         <v>8451</v>
@@ -2690,11 +2699,7 @@
           <t>(Hartig, 1834)</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
@@ -2710,10 +2715,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>485480</v>
+        <v>485506</v>
       </c>
       <c r="R20" t="n">
-        <v>6783139</v>
+        <v>6783094</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2746,11 +2751,6 @@
       <c r="AA20" t="inlineStr">
         <is>
           <t>2026-02-17</t>
-        </is>
-      </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>rikligt på flera träd, minst tre träd</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2778,7 +2778,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>131199050</v>
+        <v>131202213</v>
       </c>
       <c r="B21" t="n">
         <v>8451</v>
@@ -2822,10 +2822,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>485504</v>
+        <v>485480</v>
       </c>
       <c r="R21" t="n">
-        <v>6783172</v>
+        <v>6783087</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2885,7 +2885,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>131199107</v>
+        <v>131202661</v>
       </c>
       <c r="B22" t="n">
         <v>8451</v>
@@ -2929,10 +2929,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>485476</v>
+        <v>485435</v>
       </c>
       <c r="R22" t="n">
-        <v>6783098</v>
+        <v>6783121</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2992,7 +2992,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>131202213</v>
+        <v>131199050</v>
       </c>
       <c r="B23" t="n">
         <v>8451</v>
@@ -3036,10 +3036,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>485480</v>
+        <v>485504</v>
       </c>
       <c r="R23" t="n">
-        <v>6783087</v>
+        <v>6783172</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3099,7 +3099,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>131202661</v>
+        <v>131199107</v>
       </c>
       <c r="B24" t="n">
         <v>8451</v>
@@ -3143,10 +3143,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>485435</v>
+        <v>485476</v>
       </c>
       <c r="R24" t="n">
-        <v>6783121</v>
+        <v>6783098</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3206,7 +3206,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>131198972</v>
+        <v>131202538</v>
       </c>
       <c r="B25" t="n">
         <v>8451</v>
@@ -3250,10 +3250,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>485466</v>
+        <v>485500</v>
       </c>
       <c r="R25" t="n">
-        <v>6783153</v>
+        <v>6783141</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3313,7 +3313,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>131202538</v>
+        <v>131198972</v>
       </c>
       <c r="B26" t="n">
         <v>8451</v>
@@ -3357,10 +3357,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>485500</v>
+        <v>485466</v>
       </c>
       <c r="R26" t="n">
-        <v>6783141</v>
+        <v>6783153</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -4594,10 +4594,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>131199044</v>
+        <v>131202630</v>
       </c>
       <c r="B38" t="n">
-        <v>57881</v>
+        <v>57884</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4605,16 +4605,16 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>100049</v>
+        <v>100109</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -4637,10 +4637,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>485494</v>
+        <v>485526</v>
       </c>
       <c r="R38" t="n">
-        <v>6783163</v>
+        <v>6783143</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4699,7 +4699,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>131198860</v>
+        <v>131199044</v>
       </c>
       <c r="B39" t="n">
         <v>57881</v>
@@ -4742,10 +4742,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>485442</v>
+        <v>485494</v>
       </c>
       <c r="R39" t="n">
-        <v>6783096</v>
+        <v>6783163</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4804,10 +4804,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>131202630</v>
+        <v>131198860</v>
       </c>
       <c r="B40" t="n">
-        <v>57884</v>
+        <v>57881</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4815,16 +4815,16 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>100109</v>
+        <v>100049</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -4847,10 +4847,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>485526</v>
+        <v>485442</v>
       </c>
       <c r="R40" t="n">
-        <v>6783143</v>
+        <v>6783096</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
